--- a/Dataset/KPI_2.xlsx
+++ b/Dataset/KPI_2.xlsx
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -501,8 +501,10 @@
       <c r="E3" t="n">
         <v>-33.33333333333333</v>
       </c>
-      <c r="F3" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -522,7 +524,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +544,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2188323090430202</v>
+        <v>166.6666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +564,7 @@
         <v>-200</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +584,7 @@
         <v>-33.33333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-83.33333333333334</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +624,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2188323090430202</v>
+        <v>166.6666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -681,8 +683,10 @@
       <c r="E12" t="n">
         <v>-100</v>
       </c>
-      <c r="F12" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -702,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -742,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -821,8 +825,10 @@
       <c r="E19" t="n">
         <v>50</v>
       </c>
-      <c r="F19" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -842,7 +848,7 @@
         <v>-100</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +868,7 @@
         <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +888,7 @@
         <v>-300</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +908,7 @@
         <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-116.6666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +928,7 @@
         <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -942,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="26">
@@ -961,8 +967,10 @@
       <c r="E26" t="n">
         <v>-100</v>
       </c>
-      <c r="F26" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -982,7 +990,7 @@
         <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="29">
@@ -1021,8 +1029,10 @@
       <c r="E29" t="n">
         <v>66.66666666666666</v>
       </c>
-      <c r="F29" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1042,7 +1052,7 @@
         <v>-100</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="31">
@@ -1062,7 +1072,7 @@
         <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="32">
@@ -1082,7 +1092,7 @@
         <v>-400</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="33">
@@ -1102,7 +1112,7 @@
         <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="34">
@@ -1122,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="35">
@@ -1141,8 +1151,10 @@
       <c r="E35" t="n">
         <v>-100</v>
       </c>
-      <c r="F35" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1174,7 @@
         <v>-25</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="37">
@@ -1182,7 +1194,7 @@
         <v>80</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-420</v>
       </c>
     </row>
     <row r="38">
@@ -1202,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1242,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1281,8 +1293,10 @@
       <c r="E42" t="n">
         <v>-100</v>
       </c>
-      <c r="F42" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1302,7 +1316,7 @@
         <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="44">
@@ -1322,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="45">
@@ -1342,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1361,8 +1375,10 @@
       <c r="E46" t="n">
         <v>50</v>
       </c>
-      <c r="F46" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1382,7 +1398,7 @@
         <v>-100</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="48">
@@ -1402,7 +1418,7 @@
         <v>50</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="49">
@@ -1422,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="50">
@@ -1441,8 +1457,10 @@
       <c r="E50" t="n">
         <v>-100</v>
       </c>
-      <c r="F50" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1462,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="52">
@@ -1481,8 +1499,10 @@
       <c r="E52" t="n">
         <v>50</v>
       </c>
-      <c r="F52" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1502,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="54">
@@ -1521,8 +1541,10 @@
       <c r="E54" t="n">
         <v>-100</v>
       </c>
-      <c r="F54" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1542,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="56">
@@ -1561,8 +1583,10 @@
       <c r="E56" t="n">
         <v>-50</v>
       </c>
-      <c r="F56" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1582,7 +1606,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-233.3333333333333</v>
       </c>
     </row>
     <row r="58">
@@ -1602,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="59">
@@ -1621,8 +1645,10 @@
       <c r="E59" t="n">
         <v>-100</v>
       </c>
-      <c r="F59" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1642,7 +1668,7 @@
         <v>50</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="61">
@@ -1662,7 +1688,7 @@
         <v>-100</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="62">
@@ -1682,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="63">
@@ -1701,8 +1727,10 @@
       <c r="E63" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="F63" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1722,7 +1750,7 @@
         <v>-50</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="65">
@@ -1742,7 +1770,7 @@
         <v>33.33333333333333</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-166.6666666666667</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1801,8 +1829,10 @@
       <c r="E68" t="n">
         <v>-50</v>
       </c>
-      <c r="F68" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -1822,7 +1852,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-233.3333333333333</v>
       </c>
     </row>
     <row r="70">
@@ -1842,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="71">
@@ -1861,8 +1891,10 @@
       <c r="E71" t="n">
         <v>-100</v>
       </c>
-      <c r="F71" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1882,7 +1914,7 @@
         <v>-50</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="73">
@@ -1902,7 +1934,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-233.3333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -1922,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="75">
@@ -1942,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1962,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1981,8 +2013,10 @@
       <c r="E77" t="n">
         <v>-300</v>
       </c>
-      <c r="F77" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -2002,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="79">
@@ -2021,8 +2055,10 @@
       <c r="E79" t="n">
         <v>50</v>
       </c>
-      <c r="F79" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2042,7 +2078,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2062,7 +2098,7 @@
         <v>-100</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="82">
@@ -2082,7 +2118,7 @@
         <v>50</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="83">
@@ -2102,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="84">
@@ -2122,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2141,8 +2177,10 @@
       <c r="E85" t="n">
         <v>50</v>
       </c>
-      <c r="F85" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -2162,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="87">
@@ -2181,8 +2219,10 @@
       <c r="E87" t="n">
         <v>-200</v>
       </c>
-      <c r="F87" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2242,7 @@
         <v>33.33333333333333</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-116.6666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2262,7 @@
         <v>50</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.2188323090430202</v>
+        <v>50.00000000000002</v>
       </c>
     </row>
     <row r="90">
@@ -2242,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="91">
@@ -2262,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2282,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2302,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2322,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2341,8 +2381,10 @@
       <c r="E95" t="n">
         <v>-200</v>
       </c>
-      <c r="F95" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -2362,7 +2404,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-133.3333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -2382,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="98">
@@ -2402,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2422,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2441,8 +2483,10 @@
       <c r="E100" t="n">
         <v>-200</v>
       </c>
-      <c r="F100" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -2462,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="102">
@@ -2481,8 +2525,10 @@
       <c r="E102" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="F102" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -2502,7 +2548,7 @@
         <v>50</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.2188323090430202</v>
+        <v>50.00000000000002</v>
       </c>
     </row>
     <row r="104">
@@ -2522,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="105">
@@ -2542,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2561,8 +2607,10 @@
       <c r="E106" t="n">
         <v>-100</v>
       </c>
-      <c r="F106" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -2582,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="108">
@@ -2601,8 +2649,10 @@
       <c r="E108" t="n">
         <v>-50</v>
       </c>
-      <c r="F108" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -2622,7 +2672,7 @@
         <v>33.33333333333333</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-166.6666666666667</v>
       </c>
     </row>
     <row r="110">
@@ -2642,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="111">
@@ -2661,8 +2711,10 @@
       <c r="E111" t="n">
         <v>50</v>
       </c>
-      <c r="F111" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -2682,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="113">
@@ -2702,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2722,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2742,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2762,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2782,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2801,8 +2853,10 @@
       <c r="E118" t="n">
         <v>-100</v>
       </c>
-      <c r="F118" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -2822,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="120">
@@ -2842,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2862,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2881,8 +2935,10 @@
       <c r="E122" t="n">
         <v>-200</v>
       </c>
-      <c r="F122" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -2902,7 +2958,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-133.3333333333333</v>
       </c>
     </row>
     <row r="124">
@@ -2922,7 +2978,7 @@
         <v>-100</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="125">
@@ -2942,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="126">
@@ -2961,8 +3017,10 @@
       <c r="E126" t="n">
         <v>50</v>
       </c>
-      <c r="F126" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -2982,7 +3040,7 @@
         <v>-100</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="128">
@@ -3002,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="129">
@@ -3022,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.2188323090430202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3041,8 +3099,10 @@
       <c r="E130" t="n">
         <v>-100</v>
       </c>
-      <c r="F130" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -3062,7 +3122,7 @@
         <v>-50</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="132">
@@ -3082,7 +3142,7 @@
         <v>33.33333333333333</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-166.6666666666667</v>
       </c>
     </row>
     <row r="133">
@@ -3102,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="134">
@@ -3121,8 +3181,10 @@
       <c r="E134" t="n">
         <v>50</v>
       </c>
-      <c r="F134" t="n">
-        <v>-0.2188323090430202</v>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -3142,7 +3204,7 @@
         <v>-200</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="136">
@@ -3162,7 +3224,7 @@
         <v>33.33333333333333</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.2188323090430202</v>
+        <v>-116.6666666666667</v>
       </c>
     </row>
   </sheetData>
